--- a/seo_extrator/ListadeEmails.xlsx
+++ b/seo_extrator/ListadeEmails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\SEO_extrator\seo_extrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD0FE31-2E0D-4D81-B600-E1C9C1992E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28334421-BD1B-474A-B21D-7A4512987411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63EA0BAC-E801-458C-B39D-C526084F07E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="228">
   <si>
     <t>nota</t>
   </si>
@@ -239,9 +239,6 @@
     <t>https://diariodocomercio.com.br/turismo/setor-de-turismo-inicia-flexibilizacao-em-minas-gerais/</t>
   </si>
   <si>
-    <t>https://mgturismo.com.br/</t>
-  </si>
-  <si>
     <t>https://mariana.org.br/fale-conosco</t>
   </si>
   <si>
@@ -359,18 +356,12 @@
     <t>https://www.viajesim.com/roteiro-de-5-dias-em-minas-gerais-com-inhotim-e-estrada-real.html</t>
   </si>
   <si>
-    <t>https://www.kayak.com.br/news/cidades-historicas-minas-gerais/</t>
-  </si>
-  <si>
     <t>http://www.chaonosso.com.br/index.php/minas-gerais-roteiro-historico-completo</t>
   </si>
   <si>
     <t>https://www.dubbi.com.br/blog/carnaval-em-sao-luiz-do-paraitinga-e-para-ir-pelo-menos-uma-vez-na-vida</t>
   </si>
   <si>
-    <t>https://instaviagem.com/blog/planejamento/cidades-historicas-de-minas-gerais-roteiro-de-3-dias/</t>
-  </si>
-  <si>
     <t>https://www.viagensquesonhamos.com.br/2016/08/Roteiro-de-uma-semana-em-minas-gerais.html</t>
   </si>
   <si>
@@ -383,9 +374,6 @@
     <t>https://www.felipeopequenoviajante.com/2019/04/roteiro-de-carro-chapada-diamantina-barra-grande-rota-do-lagarto.html</t>
   </si>
   <si>
-    <t>https://www.turismodeexperiencia.com.br/roteiro-de-3-dias-em-capitolio-minas-gerais/</t>
-  </si>
-  <si>
     <t>http://www.planetaminas.com.br/roteiros.php</t>
   </si>
   <si>
@@ -515,18 +503,12 @@
     <t>Roteiro de 7 dias em Minas Gerais: Capitólio, Belo Horizonte, Circuito das Grutas e Serra do Cipó</t>
   </si>
   <si>
-    <t>Cidades históricas de Minas Gerais: um roteiro pelo passado</t>
-  </si>
-  <si>
     <t>Minas Gerais&gt; Roteiro Histórico Completo</t>
   </si>
   <si>
     <t>Roteiro imperdível nas cidades históricas de Minas Gerais</t>
   </si>
   <si>
-    <t>Cidades históricas de Minas Gerais: roteiro de 3 dias</t>
-  </si>
-  <si>
     <t>Minas Gerais | Conhecendo o melhor do estado em seis dias</t>
   </si>
   <si>
@@ -539,9 +521,6 @@
     <t>Roteiro de carro de 29 dias entre Minas Gerais, Bahia e Espírito Santo da família da Maria Inês</t>
   </si>
   <si>
-    <t>3 dias em Capitólio – Minas Gerais</t>
-  </si>
-  <si>
     <t>Descubra Minas através de Experiências Incríveis em Destinos Envolventes</t>
   </si>
   <si>
@@ -572,9 +551,6 @@
     <t>contato@diariodocomercio.com.br</t>
   </si>
   <si>
-    <t>claret.mgturismo@uol.com.br</t>
-  </si>
-  <si>
     <t>atendimento@idasbrasil.com.br</t>
   </si>
   <si>
@@ -689,18 +665,12 @@
     <t>contato@viajesim.com</t>
   </si>
   <si>
-    <t>latam@kayak.com</t>
-  </si>
-  <si>
     <t>info@chaonosso.com.br</t>
   </si>
   <si>
     <t>info@dubbi.com.br</t>
   </si>
   <si>
-    <t>info@instaviagem.com</t>
-  </si>
-  <si>
     <t>viagensquesonhamos@gmail.com</t>
   </si>
   <si>
@@ -713,9 +683,6 @@
     <t>claudionil@hotmail.com</t>
   </si>
   <si>
-    <t>contato@turismodeexperiencia.com.br</t>
-  </si>
-  <si>
     <t>contato@planetaminas.com.br</t>
   </si>
   <si>
@@ -728,12 +695,6 @@
     <t>redacao@guiadasemana.com.br</t>
   </si>
   <si>
-    <t>https://clubdeferias.tur.br/locais/destinos/Minas%252BGerais</t>
-  </si>
-  <si>
-    <t>deferiasclub@gmail.com, club_deferias@hotmail.com, club_deferias@hotmail.com, deferiasclub@gmail.com</t>
-  </si>
-  <si>
     <t>seção Minas Gerais</t>
   </si>
   <si>
@@ -749,19 +710,19 @@
     <t>Titulo2</t>
   </si>
   <si>
-    <t>Um link que vai melhorar a experiência do leitor do seu blog</t>
-  </si>
-  <si>
-    <t>Conteúdo que tem gerado muitos acessos em meu site</t>
-  </si>
-  <si>
-    <t>Você está interessado em publicar um comparador de preços de estacionamentos de Aeroporto?</t>
-  </si>
-  <si>
-    <t>Dica de um texto para publicar em seu site</t>
-  </si>
-  <si>
-    <t>Os seus leitores vão se interessar por esse assunto</t>
+    <t>Seu público gosta de dicas úteis, olha só essa ....</t>
+  </si>
+  <si>
+    <t>viajali@contteudo.com</t>
+  </si>
+  <si>
+    <t>contato@proximatrip.com.br</t>
+  </si>
+  <si>
+    <t>https://www.viajali.com.br</t>
+  </si>
+  <si>
+    <t>proximatrip.com.br</t>
   </si>
 </sst>
 </file>
@@ -806,18 +767,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -828,6 +798,39 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -871,10 +874,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE7DA0C3-A938-421E-B2E7-F6CEAD5191A7}" name="Tabela1" displayName="Tabela1" ref="A1:F82" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F82" xr:uid="{485F409F-CB7C-42E1-8CA0-D84D9FE6519E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
-    <sortCondition ref="A1:A134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE7DA0C3-A938-421E-B2E7-F6CEAD5191A7}" name="Tabela1" displayName="Tabela1" ref="A1:F79" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F79" xr:uid="{485F409F-CB7C-42E1-8CA0-D84D9FE6519E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
+    <sortCondition ref="A1:A127"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4032BD5A-532C-46BB-A9A7-69CDA3FD4EE5}" uniqueName="dominio" name="página">
@@ -889,7 +892,7 @@
     <tableColumn id="4" xr3:uid="{94377F9B-FEB0-4645-9D50-B14D49EDC160}" uniqueName="contato" name="contato">
       <xmlColumnPr mapId="1" xpath="/items/item/contato" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A94FDEE0-5210-4842-9BFB-1CC99455E505}" uniqueName="6" name="Domínio" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{A94FDEE0-5210-4842-9BFB-1CC99455E505}" uniqueName="6" name="Domínio" dataDxfId="5">
       <calculatedColumnFormula>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{54FC1301-781E-4945-AB82-0C1D00488813}" uniqueName="7" name="Titulo2"/>
@@ -1195,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1215,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1224,82 +1227,82 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E2" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>http://destinosmg.com.br/</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E3" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>http://estacioneaeroporto.com/</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E4" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>http://sindepark.com.br/</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E5" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>http://www.chaonosso.com.br/</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1307,17 +1310,17 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E6" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>http://www.exploremg.com/</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,43 +1341,43 @@
         <v>http://www.mineirosnaestrada.com.br/</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E8" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>http://www.planetaminas.com.br/</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E9" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>http://www.qualviagem.com.br/</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,43 +1398,43 @@
         <v>http://www.viajarbarato.com.br/</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E11" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>https://armazem26.com.br/</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E12" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>https://bhaz.com.br/</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,7 +1455,7 @@
         <v>https://blog.clubecandeias.com/</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,61 +1476,61 @@
         <v>https://blog.grandhotelpocinhos.com.br/</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E15" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>https://blog.habitarvicosa.com.br/</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E16" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>https://blogmeudestino.com/</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E17" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>https://brasilturis.com.br/</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,1228 +1551,1159 @@
         <v>https://cafeviagem.com/</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E19" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
         <v>https://catracalivre.com.br/</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>0.33333333333333331</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="E20" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://clubdeferias.tur.br/</v>
+        <v>https://coisasdemineiro.com/</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>0.7777777777777779</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="E21" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://coisasdemineiro.com/</v>
+        <v>https://destinocerto.com.br/</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="E22" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://destinocerto.com.br/</v>
+        <v>https://destinosnotaveis.com.br/</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E23" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://destinosnotaveis.com.br/</v>
+        <v>https://diariodocomercio.com.br/</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E24" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://diariodocomercio.com.br/</v>
+        <v>https://diariodotransporte.com.br/</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E25" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://diariodotransporte.com.br/</v>
+        <v>https://freeway.tur.br/</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E26" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://freeway.tur.br/</v>
+        <v>https://guia.melhoresdestinos.com.br/</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E27" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://guia.melhoresdestinos.com.br/</v>
+        <v>https://guimaraestour.com.br/</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="E28" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://guimaraestour.com.br/</v>
+        <v>https://hthappytravel.com/</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="E29" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://hthappytravel.com/</v>
+        <v>https://jmonline.com.br/</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>0.55555555555555558</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="E30" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://instaviagem.com/</v>
+        <v>https://jujunatrip.com/</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E31" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://jmonline.com.br/</v>
+        <v>https://mariana.org.br/</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>0.55555555555555558</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="E32" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://jujunatrip.com/</v>
+        <v>https://muitaviagem.com.br/</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0.55555555555555558</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="E33" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://mariana.org.br/</v>
+        <v>https://omundoepequenoparamim.com.br/</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E34" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://mgturismo.com.br/</v>
+        <v>https://portalamm.org.br/</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E35" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://muitaviagem.com.br/</v>
+        <v>https://prefiroviajar.com.br/</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>0.55555555555555558</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E36" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://omundoepequenoparamim.com.br/</v>
+        <v>https://quantocustaviajar.com/</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="E37" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://portalamm.org.br/</v>
+        <v>https://queimandoasfalto.com.br/</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.66666666666666674</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="E38" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://prefiroviajar.com.br/</v>
+        <v>https://rbbv.com.br/</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>0.7777777777777779</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E39" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://quantocustaviajar.com/</v>
+        <v>https://segredosdeviagem.com.br/</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E40" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://queimandoasfalto.com.br/</v>
+        <v>https://setelagoas.com.br/</v>
       </c>
       <c r="F40" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
-        <v>0.66666666666666674</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="E41" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://rbbv.com.br/</v>
+        <v>https://turismodeminas.com.br/</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B42">
         <v>0.66666666666666674</v>
       </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>42</v>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E42" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://segredosdeviagem.com.br/</v>
+        <v>https://turismodeminas.com.br/</v>
       </c>
       <c r="F42" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E43" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://setelagoas.com.br/</v>
+        <v>https://turisteiro.com/</v>
       </c>
       <c r="F43" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E44" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://turismodeminas.com.br/</v>
+        <v>https://vahcompare.com/</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>5</v>
+      <c r="A45" t="s">
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
       </c>
       <c r="E45" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://turismodeminas.com.br/</v>
+        <v>https://viagememdetalhes.com.br/</v>
       </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="E46" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://turisteiro.com/</v>
+        <v>https://viajandobem.com.br/</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="E47" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://vahcompare.com/</v>
+        <v>https://viajandonajanela.com/</v>
       </c>
       <c r="F47" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48">
-        <v>0.55555555555555558</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="E48" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://viagememdetalhes.com.br/</v>
+        <v>https://viajarcomcriancas.com.br/</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.66666666666666674</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="E49" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://viajandobem.com.br/</v>
+        <v>https://viajeibonito.com.br/</v>
       </c>
       <c r="F49" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E50" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://viajandonajanela.com/</v>
+        <v>https://vidasemparedes.com.br/</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E51" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://viajarcomcriancas.com.br/</v>
+        <v>https://www.abraceomundo.com/</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>0.66666666666666674</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E52" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://viajeibonito.com.br/</v>
+        <v>https://www.almadeviajante.com/</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E53" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://vidasemparedes.com.br/</v>
+        <v>https://www.brasildefatomg.com.br/</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>0.44444444444444442</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="E54" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.abraceomundo.com/</v>
+        <v>https://www.buladeviagem.com/</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>0.44444444444444442</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="E55" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.almadeviajante.com/</v>
+        <v>https://www.carpemundi.com.br/</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
         <v>209</v>
       </c>
       <c r="E56" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.brasildefatomg.com.br/</v>
+        <v>https://www.dubbi.com.br/</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>0.44444444444444442</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E57" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.buladeviagem.com/</v>
+        <v>https://www.eduardo-monica.com/</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E58" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.carpemundi.com.br/</v>
+        <v>https://www.eduardo-monica.com/</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E59" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.dubbi.com.br/</v>
+        <v>https://www.felipeopequenoviajante.com/</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60">
-        <v>0.44444444444444442</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="E60" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.eduardo-monica.com/</v>
+        <v>https://www.guiadasemana.com.br/</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E61" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.eduardo-monica.com/</v>
+        <v>https://www.guiaviagensbrasil.com/</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E62" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.felipeopequenoviajante.com/</v>
+        <v>https://www.hypeness.com.br/</v>
       </c>
       <c r="F62" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="E63" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.guiadasemana.com.br/</v>
+        <v>https://www.marciomoreiraturismo.com.br/</v>
       </c>
       <c r="F63" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>0.33333333333333331</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="E64" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.guiaviagensbrasil.com/</v>
+        <v>https://www.melhoresdestinos.com.br/</v>
       </c>
       <c r="F64" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E65" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.hypeness.com.br/</v>
+        <v>https://www.melhoresdestinos.com.br/</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>106</v>
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>0.44444444444444442</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E66" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.kayak.com.br/</v>
+        <v>https://www.minasimperador.com.br/</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s">
-        <v>138</v>
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E67" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.marciomoreiraturismo.com.br/</v>
+        <v>https://www.observatorioturismo.mg.gov.br/</v>
       </c>
       <c r="F67" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68">
-        <v>0.33333333333333331</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="E68" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.melhoresdestinos.com.br/</v>
+        <v>https://www.soubh.com.br/</v>
       </c>
       <c r="F68" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="E69" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.melhoresdestinos.com.br/</v>
+        <v>https://www.transportal.com.br/</v>
       </c>
       <c r="F69" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>4</v>
+      <c r="A70" t="s">
+        <v>12</v>
       </c>
       <c r="B70">
         <v>0.44444444444444442</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
       </c>
       <c r="E70" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.minasimperador.com.br/</v>
+        <v>https://www.turismoouropreto.com/</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>6</v>
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E71" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.observatorioturismo.mg.gov.br/</v>
+        <v>https://www.viagenscinematograficas.com.br/</v>
       </c>
       <c r="F71" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E72" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.soubh.com.br/</v>
+        <v>https://www.viagensecaminhos.com/</v>
       </c>
       <c r="F72" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E73" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.transportal.com.br/</v>
+        <v>https://www.viagensquesonhamos.com.br/</v>
       </c>
       <c r="F73" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E74" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.turismodeexperiencia.com.br/</v>
+        <v>https://www.viajenaviagem.com/</v>
       </c>
       <c r="F74" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75">
-        <v>0.44444444444444442</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="E75" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.turismoouropreto.com/</v>
+        <v>https://www.viajesim.com/</v>
       </c>
       <c r="F75" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="B76">
+        <v>0.7777777777777779</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="E76" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.viagenscinematograficas.com.br/</v>
+        <v>https://www.viajoteca.com/</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="E77" t="str">
         <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.viagensecaminhos.com/</v>
+        <v>https://www.voltologo.net/</v>
       </c>
       <c r="F77" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" t="s">
-        <v>220</v>
-      </c>
-      <c r="E78" t="str">
-        <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.viagensquesonhamos.com.br/</v>
+      <c r="D78" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="F78" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" t="s">
-        <v>212</v>
-      </c>
-      <c r="E79" t="str">
-        <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.viajenaviagem.com/</v>
+      <c r="D79" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F79" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" t="s">
-        <v>215</v>
-      </c>
-      <c r="E80" t="str">
-        <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.viajesim.com/</v>
-      </c>
-      <c r="F80" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81">
-        <v>0.7777777777777779</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" t="str">
-        <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.viajoteca.com/</v>
-      </c>
-      <c r="F81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" t="str">
-        <f>LEFT(Tabela1[[#This Row],[página]],FIND("/",Tabela1[[#This Row],[página]],9))</f>
-        <v>https://www.voltologo.net/</v>
-      </c>
-      <c r="F82" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D82">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  <conditionalFormatting sqref="D1:D79">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A70" r:id="rId1" xr:uid="{84EABB7B-FD74-454E-BAFA-43DC6E6EAFBB}"/>
-    <hyperlink ref="A45" r:id="rId2" xr:uid="{66740F76-612A-488B-8ADE-C4389E97B7FC}"/>
-    <hyperlink ref="A71" r:id="rId3" xr:uid="{1FD2B443-43AD-49C9-B49C-0CDCA0714250}"/>
+    <hyperlink ref="A66" r:id="rId1" xr:uid="{84EABB7B-FD74-454E-BAFA-43DC6E6EAFBB}"/>
+    <hyperlink ref="A42" r:id="rId2" xr:uid="{66740F76-612A-488B-8ADE-C4389E97B7FC}"/>
+    <hyperlink ref="A67" r:id="rId3" xr:uid="{1FD2B443-43AD-49C9-B49C-0CDCA0714250}"/>
+    <hyperlink ref="D78" r:id="rId4" display="mailto:viajali@contteudo.com" xr:uid="{5522B6C7-3CED-40C9-AE8F-E8E83B9165B8}"/>
+    <hyperlink ref="D79" r:id="rId5" xr:uid="{269D64BF-7405-47CC-8744-EC56C93F3CDB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>